--- a/Документ по проведённому тестировании.xlsx
+++ b/Документ по проведённому тестировании.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Тестировщик</t>
-  </si>
-  <si>
-    <t>Не протестирован</t>
   </si>
   <si>
     <t>Владимир Милорадов</t>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>Серьёзности Trivial:</t>
+  </si>
+  <si>
+    <t>Протестирован</t>
   </si>
 </sst>
 </file>
@@ -757,6 +757,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,22 +798,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,17 +2105,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -2136,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,25 +2144,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>17</v>
+      <c r="H5" s="25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,163 +2170,163 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
@@ -2363,24 +2363,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2389,66 +2389,66 @@
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2457,234 +2457,234 @@
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="31"/>
       <c r="D13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="306" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="31"/>
       <c r="D24" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="C25" s="29"/>
       <c r="D25" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2693,125 +2693,125 @@
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="26"/>
+        <v>79</v>
+      </c>
+      <c r="C31" s="28"/>
       <c r="D31" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="C33" s="31"/>
       <c r="D33" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="20" t="s">
+      <c r="F34" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="C35" s="28"/>
       <c r="D35" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="C36" s="29"/>
       <c r="D36" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="C37" s="28"/>
       <c r="D37" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="C38" s="29"/>
       <c r="D38" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="7"/>
@@ -2820,30 +2820,30 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2852,41 +2852,41 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D43" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2895,30 +2895,30 @@
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D46" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2927,37 +2927,37 @@
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D49" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3092,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,341 +3103,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="G1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="G1" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="36">
+        <v>35</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="36">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="36">
+        <v>18</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="36">
+        <v>18</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="37">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="37">
-        <v>35</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="37">
-        <v>17</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="37">
-        <v>18</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="37">
-        <v>18</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="36">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B12" s="36">
+        <v>16</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="36">
+        <v>2</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="36">
         <v>0</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="37">
-        <v>16</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="37">
-        <v>2</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B15" s="36">
         <v>0</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="37">
-        <v>0</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
